--- a/output/clusters_heatmap.xlsx
+++ b/output/clusters_heatmap.xlsx
@@ -23,40 +23,409 @@
     <t xml:space="preserve">CSF-1</t>
   </si>
   <si>
+    <t xml:space="preserve">PTX3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCL23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL-18R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGRP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCL19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDCP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD8A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HO-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERTK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XCL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRELP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FGF-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMP-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EFEMP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LILRB5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGFBP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QPCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMP-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIMD4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL-12B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FETUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRSS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIgR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWEAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGFBI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNFB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flt3L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMP12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LYVE1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPARCL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEGF9</t>
+  </si>
+  <si>
     <t xml:space="preserve">PD-L1</t>
   </si>
   <si>
-    <t xml:space="preserve">PTX3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCL23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL-18R1</t>
+    <t xml:space="preserve">TRANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNFRSF10A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HGF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CXCL10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFN-gamma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACE2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCL20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEGFA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLO1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAS6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPON2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAIL-R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGLC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hOSCAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITGB1BP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THBS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PGF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CXCL9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNFRSF11A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1QTNF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAOX1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSGL-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4E-BP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXIN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCL4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAMBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CST5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STK4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FABP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COL18A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GP1BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERPINA5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GDF-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASP-8</t>
   </si>
   <si>
     <t xml:space="preserve">Gal-9</t>
   </si>
   <si>
-    <t xml:space="preserve">TNFRSF10A</t>
+    <t xml:space="preserve">CTSL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRSS27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CX3CL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNDP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIE2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL-1ra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADAM-TS13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGF-alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAA4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMP-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCL28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL1RL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EN-RAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSP 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIF-R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOX-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCL25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FGF-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCL18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMP</t>
   </si>
   <si>
     <t xml:space="preserve">NID1</t>
   </si>
   <si>
-    <t xml:space="preserve">TNF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTSL1</t>
-  </si>
-  <si>
     <t xml:space="preserve">TIMP1</t>
   </si>
   <si>
-    <t xml:space="preserve">IL-27</t>
+    <t xml:space="preserve">BOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APOM</t>
   </si>
   <si>
     <t xml:space="preserve">ST6GAL1</t>
@@ -65,409 +434,124 @@
     <t xml:space="preserve">CFHR5</t>
   </si>
   <si>
-    <t xml:space="preserve">HGF</t>
-  </si>
-  <si>
     <t xml:space="preserve">CXCL11</t>
   </si>
   <si>
-    <t xml:space="preserve">ADM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CXCL10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGRP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCL19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDCP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IFN-gamma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACE2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD8A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HO-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCL20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TNC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEGFA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MERTK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLO1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAS6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCP-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIM1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XCL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPON2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAIL-R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IGLC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCL3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRELP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCN2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CX3CL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FGF-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNDP1</t>
+    <t xml:space="preserve">DPP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCOLCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTPRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THBS4</t>
   </si>
   <si>
     <t xml:space="preserve">LILRB1</t>
   </si>
   <si>
-    <t xml:space="preserve">REN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EFEMP1</t>
-  </si>
-  <si>
     <t xml:space="preserve">MCP-2</t>
   </si>
   <si>
+    <t xml:space="preserve">AOC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENG</t>
+  </si>
+  <si>
     <t xml:space="preserve">LILRB2</t>
   </si>
   <si>
-    <t xml:space="preserve">hOSCAR</t>
-  </si>
-  <si>
     <t xml:space="preserve">ICAM1</t>
   </si>
   <si>
     <t xml:space="preserve">VCAM1</t>
   </si>
   <si>
-    <t xml:space="preserve">IL-1ra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THBS2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PGF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CXCL9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TNFRSF11A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1QTNF1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAOX1</t>
+    <t xml:space="preserve">NCAM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDGF subunit B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCL17</t>
   </si>
   <si>
     <t xml:space="preserve">PLXNB2</t>
   </si>
   <si>
-    <t xml:space="preserve">4E-BP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TGF-alpha</t>
+    <t xml:space="preserve">IGFBP6</t>
   </si>
   <si>
     <t xml:space="preserve">MBL2</t>
   </si>
   <si>
-    <t xml:space="preserve">TIMD4</t>
-  </si>
-  <si>
     <t xml:space="preserve">TNFSF14</t>
   </si>
   <si>
-    <t xml:space="preserve">IL-12B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRSS2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIgR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL8</t>
+    <t xml:space="preserve">NRP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHL1</t>
   </si>
   <si>
     <t xml:space="preserve">REG1A</t>
   </si>
   <si>
-    <t xml:space="preserve">FS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCL4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMP-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CA3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL18</t>
+    <t xml:space="preserve">FCN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEGFD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD40-L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANGPTL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SORT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTCH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MET</t>
   </si>
   <si>
     <t xml:space="preserve">CST3</t>
   </si>
   <si>
-    <t xml:space="preserve">MMP12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TGM2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL1RL2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIF-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCL18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMP-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QPCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMP-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWEAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEGFD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FABP2</t>
+    <t xml:space="preserve">HB-EGF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dkk-1</t>
   </si>
   <si>
     <t xml:space="preserve">THPO</t>
   </si>
   <si>
-    <t xml:space="preserve">SPARCL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERPINA5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GDF-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASP-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRANCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPP4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCOLCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRSS27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL7R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTPRS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THBS4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AOC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIE2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITGB1BP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LILRB5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADAM-TS13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IGFBP3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCAM1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDGF subunit B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCL17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSGL-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AXIN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCP-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD40-L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TNFB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAMBP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SORT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOTCH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STK4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HB-EGF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTRC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dkk-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP1BA</t>
+    <t xml:space="preserve">ANG</t>
   </si>
   <si>
     <t xml:space="preserve">CCL5</t>
@@ -482,106 +566,22 @@
     <t xml:space="preserve">CXCL5</t>
   </si>
   <si>
-    <t xml:space="preserve">CD46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FGF-19</t>
+    <t xml:space="preserve">FCGR2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIE1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F11</t>
   </si>
   <si>
     <t xml:space="preserve">CXCL1</t>
   </si>
   <si>
     <t xml:space="preserve">CXCL6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IGFBP6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FETUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAA4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NRP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GNLY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TGFBI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FCN2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANGPTL3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCL28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flt3L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CST5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COL18A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EN-RAGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSP 27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LYVE1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOX-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMBP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FCGR2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEGF9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCL25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIE1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEP</t>
   </si>
   <si>
     <t xml:space="preserve">OSMR</t>
@@ -1033,117 +1033,117 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47">
@@ -1159,236 +1159,6 @@
     <row r="49">
       <c r="A49" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1407,62 +1177,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1481,287 +1431,197 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1780,156 +1640,296 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
         <v>189</v>
       </c>
     </row>
